--- a/Management/Agile.xlsx
+++ b/Management/Agile.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A48E4-A825-4912-99E3-EC0A59462DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12192" tabRatio="415"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -16,26 +17,17 @@
     <definedName name="Scrolling_Increment">Gantt!$F$4</definedName>
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
-  <si>
-    <t>Task 4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>About This Template</t>
   </si>
@@ -193,19 +185,10 @@
     <t>DB implementation</t>
   </si>
   <si>
-    <t>Api Methods Implementation</t>
-  </si>
-  <si>
-    <t>Frontend Template</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
     <t>Creation of repository in GIT</t>
-  </si>
-  <si>
-    <t>Api methods implementation</t>
   </si>
   <si>
     <t>About</t>
@@ -246,16 +229,19 @@
   <si>
     <t>Home</t>
   </si>
+  <si>
+    <t>FRONTEND TASKS:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +381,22 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF427FC2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -652,7 +654,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -784,8 +786,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,15 +817,21 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
@@ -831,7 +839,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -1269,12 +1277,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="firstRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="25"/>
       <tableStyleElement type="headerRow" dxfId="24"/>
       <tableStyleElement type="totalRow" dxfId="23"/>
@@ -1354,11 +1362,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF427FC2"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
       <color rgb="FFC0C0C0"/>
-      <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF3969AD"/>
@@ -1387,15 +1395,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1405,7 +1413,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1436,8 +1444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B7:G35" totalsRowShown="0">
-  <autoFilter ref="B7:G35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:G35" totalsRowShown="0">
+  <autoFilter ref="B7:G35" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1446,12 +1454,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" name="Assigned To" dataDxfId="0"/>
-    <tableColumn id="4" name="Progress"/>
-    <tableColumn id="5" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" name="No. Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1724,43 +1732,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="64" width="3.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="3" max="3" width="10.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="64" width="3.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1787,60 +1795,60 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
       <c r="I2" s="61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="N2" s="62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="62"/>
       <c r="P2" s="62"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="20"/>
       <c r="S2" s="63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T2" s="63"/>
       <c r="U2" s="63"/>
       <c r="V2" s="63"/>
       <c r="W2" s="20"/>
       <c r="X2" s="54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="54"/>
       <c r="Z2" s="54"/>
       <c r="AA2" s="54"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="55"/>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="59">
@@ -1849,12 +1857,12 @@
       <c r="G3" s="60"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="45">
@@ -1941,9 +1949,9 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -2177,9 +2185,9 @@
         <v>44154</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2245,27 +2253,27 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="25" t="str">
@@ -2493,9 +2501,9 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2560,12 +2568,12 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2798,16 +2806,16 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="31">
         <v>1</v>
@@ -3044,10 +3052,10 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="53" t="s">
-        <v>43</v>
+      <c r="B11" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -3112,16 +3120,16 @@
       <c r="BK11" s="38"/>
       <c r="BL11" s="38"/>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="31">
         <v>1</v>
@@ -3190,10 +3198,10 @@
       <c r="BK12" s="38"/>
       <c r="BL12" s="38"/>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="53" t="s">
-        <v>47</v>
+      <c r="B13" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -3258,16 +3266,16 @@
       <c r="BK13" s="38"/>
       <c r="BL13" s="38"/>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="31">
         <v>1</v>
@@ -3336,10 +3344,10 @@
       <c r="BK14" s="38"/>
       <c r="BL14" s="38"/>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="42" t="s">
-        <v>44</v>
+      <c r="B15" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
@@ -3572,16 +3580,16 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="31">
         <v>0.9</v>
@@ -3589,9 +3597,7 @@
       <c r="F16" s="32">
         <v>44099</v>
       </c>
-      <c r="G16" s="33">
-        <v>2</v>
-      </c>
+      <c r="G16" s="33"/>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3818,11 +3824,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="53" t="s">
-        <v>45</v>
-      </c>
+      <c r="B17" s="66"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="31"/>
@@ -4054,18 +4058,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="31">
-        <v>0.33</v>
-      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="26"/>
@@ -4294,11 +4292,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="41" t="s">
-        <v>0</v>
-      </c>
+      <c r="B19" s="41"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="31"/>
@@ -4530,16 +4526,18 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="53" t="s">
-        <v>46</v>
+      <c r="B20" s="64" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -4766,14 +4764,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="32">
@@ -5006,16 +5004,16 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="32">
@@ -5248,14 +5246,14 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="32">
@@ -5488,14 +5486,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="32">
@@ -5728,14 +5726,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32">
@@ -5968,14 +5966,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="32">
@@ -6208,14 +6206,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="64" t="s">
-        <v>55</v>
+      <c r="B27" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="32">
@@ -6448,14 +6446,16 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="32">
@@ -6688,14 +6688,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="32">
@@ -6928,7 +6928,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="41"/>
       <c r="C30" s="34"/>
@@ -7162,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="41"/>
       <c r="C31" s="34"/>
@@ -7396,7 +7396,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="41"/>
       <c r="C32" s="34"/>
@@ -7630,9 +7630,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="34"/>
@@ -7866,9 +7866,9 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="34"/>
@@ -7934,7 +7934,7 @@
       <c r="BK34" s="37"/>
       <c r="BL34" s="37"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -7943,9 +7943,9 @@
       <c r="G35" s="33"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -7953,11 +7953,11 @@
       <c r="F36" s="43"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="5"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
     </row>
   </sheetData>
@@ -8041,13 +8041,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8069,15 +8069,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8153,42 +8153,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Management/Agile.xlsx
+++ b/Management/Agile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A48E4-A825-4912-99E3-EC0A59462DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAB43A-74C6-4311-81D3-BB1D080F922C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,6 +789,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,15 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1738,8 +1738,8 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1805,39 +1805,39 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="N2" s="62" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="N2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
       <c r="W2" s="20"/>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="55" t="s">
+      <c r="AC2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1847,24 +1847,24 @@
         <v>40</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59">
+      <c r="E3" s="60"/>
+      <c r="F3" s="62">
         <v>44099</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="45">
         <v>0</v>
       </c>
@@ -1953,13 +1953,13 @@
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="49">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44099</v>
@@ -2572,7 +2572,7 @@
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="34"/>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="34"/>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="54" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="34"/>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="34"/>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="66"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="31"/>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="54" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="34"/>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="32">

--- a/Management/Agile.xlsx
+++ b/Management/Agile.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAB43A-74C6-4311-81D3-BB1D080F922C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Scrolling_Increment">Gantt!$F$4</definedName>
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>About This Template</t>
   </si>
@@ -236,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
@@ -831,7 +830,7 @@
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
@@ -839,7 +838,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -1277,12 +1276,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="firstRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="25"/>
       <tableStyleElement type="headerRow" dxfId="24"/>
       <tableStyleElement type="totalRow" dxfId="23"/>
@@ -1395,15 +1394,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1413,7 +1412,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1444,8 +1443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:G35" totalsRowShown="0">
-  <autoFilter ref="B7:G35" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B7:G35" totalsRowShown="0">
+  <autoFilter ref="B7:G35">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1454,12 +1453,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="4" name="Progress"/>
+    <tableColumn id="5" name="Start" dataCellStyle="Date"/>
+    <tableColumn id="6" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1732,31 +1731,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="64" width="3.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="3" max="3" width="10.5546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="64" width="3.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
@@ -1795,7 +1794,7 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +1838,7 @@
       <c r="AE2" s="58"/>
       <c r="AF2" s="58"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1856,7 @@
       <c r="G3" s="63"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
@@ -1949,7 +1948,7 @@
       <c r="BK4" s="44"/>
       <c r="BL4" s="44"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>44154</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2252,7 @@
       <c r="BK6" s="47"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2568,7 +2567,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
         <v>31</v>
@@ -3052,7 +3051,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="54" t="s">
         <v>42</v>
@@ -3120,7 +3119,7 @@
       <c r="BK11" s="38"/>
       <c r="BL11" s="38"/>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
         <v>34</v>
@@ -3198,7 +3197,7 @@
       <c r="BK12" s="38"/>
       <c r="BL12" s="38"/>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="54" t="s">
         <v>44</v>
@@ -3266,7 +3265,7 @@
       <c r="BK13" s="38"/>
       <c r="BL13" s="38"/>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
         <v>45</v>
@@ -3344,7 +3343,7 @@
       <c r="BK14" s="38"/>
       <c r="BL14" s="38"/>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="55" t="s">
         <v>43</v>
@@ -3580,7 +3579,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="41" t="s">
         <v>35</v>
@@ -3597,7 +3596,9 @@
       <c r="F16" s="32">
         <v>44099</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3824,7 +3825,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="56"/>
       <c r="C17" s="34"/>
@@ -4058,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="41"/>
       <c r="C18" s="34"/>
@@ -4292,7 +4293,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="41"/>
       <c r="C19" s="34"/>
@@ -4526,7 +4527,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="54" t="s">
         <v>55</v>
@@ -4764,24 +4765,30 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F21" s="32">
         <v>44099</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
       <c r="H21" s="26"/>
-      <c r="I21" s="38" t="str">
+      <c r="I21" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J21" s="38" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5004,26 +5011,30 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F22" s="32">
         <v>44099</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
       <c r="H22" s="26"/>
-      <c r="I22" s="38" t="str">
+      <c r="I22" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J22" s="38" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5246,24 +5257,30 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F23" s="32">
         <v>44099</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
       <c r="H23" s="26"/>
-      <c r="I23" s="38" t="str">
+      <c r="I23" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J23" s="38" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5486,24 +5503,30 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F24" s="32">
         <v>44099</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="38" t="str">
+      <c r="I24" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J24" s="38" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5726,24 +5749,30 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F25" s="32">
         <v>44099</v>
       </c>
-      <c r="G25" s="33"/>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
       <c r="H25" s="26"/>
-      <c r="I25" s="38" t="str">
+      <c r="I25" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J25" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -5966,24 +5995,30 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F26" s="32">
         <v>44099</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="33">
+        <v>1</v>
+      </c>
       <c r="H26" s="26"/>
-      <c r="I26" s="38" t="str">
+      <c r="I26" s="38">
         <f t="shared" ca="1" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J26" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -6206,24 +6241,30 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F27" s="32">
         <v>44099</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
       <c r="H27" s="26"/>
-      <c r="I27" s="38" t="str">
+      <c r="I27" s="38">
         <f t="shared" ref="I27:X33" ca="1" si="14">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J27" s="38" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6446,26 +6487,30 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F28" s="32">
         <v>44099</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
       <c r="H28" s="26"/>
-      <c r="I28" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+      <c r="I28" s="38">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="J28" s="38" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6688,24 +6733,30 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="34" t="s">
+        <v>5</v>
+      </c>
       <c r="D29" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="31">
+        <v>0.8</v>
+      </c>
       <c r="F29" s="32">
         <v>44099</v>
       </c>
-      <c r="G29" s="33"/>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+      <c r="I29" s="38">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="J29" s="38" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6928,7 +6979,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="41"/>
       <c r="C30" s="34"/>
@@ -7162,7 +7213,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="41"/>
       <c r="C31" s="34"/>
@@ -7396,7 +7447,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="41"/>
       <c r="C32" s="34"/>
@@ -7630,7 +7681,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
@@ -7866,7 +7917,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>29</v>
       </c>
@@ -7934,7 +7985,7 @@
       <c r="BK34" s="37"/>
       <c r="BL34" s="37"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -7943,7 +7994,7 @@
       <c r="G35" s="33"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
         <v>17</v>
       </c>
@@ -7953,11 +8004,11 @@
       <c r="F36" s="43"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="5"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
     </row>
   </sheetData>
@@ -8041,13 +8092,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C35" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C35">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8069,15 +8120,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>63</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8153,40 +8204,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
